--- a/20170824.xlsx
+++ b/20170824.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="25">
   <si>
     <t>名称</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -92,6 +92,22 @@
   </si>
   <si>
     <t>登录7</t>
+  </si>
+  <si>
+    <t>是否校验请求参数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>是</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>否</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>登录8</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -158,7 +174,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -176,6 +192,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -481,20 +500,21 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:P17"/>
+  <dimension ref="A1:Q17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A13" sqref="A13"/>
+      <selection activeCell="A14" sqref="A14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="20.625" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="2" width="25.875" customWidth="1"/>
     <col min="6" max="6" width="108.25" customWidth="1"/>
-    <col min="9" max="16" width="20.625" style="3"/>
+    <col min="7" max="7" width="18.75" customWidth="1"/>
+    <col min="10" max="17" width="20.625" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -514,9 +534,11 @@
         <v>4</v>
       </c>
       <c r="G1" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="H1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="H1" s="2"/>
       <c r="I1" s="2"/>
       <c r="J1" s="2"/>
       <c r="K1" s="2"/>
@@ -525,8 +547,9 @@
       <c r="N1" s="2"/>
       <c r="O1" s="2"/>
       <c r="P1" s="2"/>
-    </row>
-    <row r="2" spans="1:16" s="7" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="Q1" s="2"/>
+    </row>
+    <row r="2" spans="1:17" s="7" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A2" s="5" t="s">
         <v>6</v>
       </c>
@@ -545,10 +568,12 @@
       <c r="F2" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="G2" s="5" t="s">
+      <c r="G2" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="H2" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="H2" s="6"/>
       <c r="I2" s="6"/>
       <c r="J2" s="6"/>
       <c r="K2" s="6"/>
@@ -557,8 +582,9 @@
       <c r="N2" s="6"/>
       <c r="O2" s="6"/>
       <c r="P2" s="6"/>
-    </row>
-    <row r="3" spans="1:16" s="7" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="Q2" s="6"/>
+    </row>
+    <row r="3" spans="1:17" s="7" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A3" s="5" t="s">
         <v>14</v>
       </c>
@@ -577,10 +603,12 @@
       <c r="F3" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="G3" s="5" t="s">
+      <c r="G3" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="H3" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="H3" s="6"/>
       <c r="I3" s="6"/>
       <c r="J3" s="6"/>
       <c r="K3" s="6"/>
@@ -589,8 +617,9 @@
       <c r="N3" s="6"/>
       <c r="O3" s="6"/>
       <c r="P3" s="6"/>
-    </row>
-    <row r="4" spans="1:16" s="7" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="Q3" s="6"/>
+    </row>
+    <row r="4" spans="1:17" s="7" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A4" s="5" t="s">
         <v>15</v>
       </c>
@@ -609,10 +638,12 @@
       <c r="F4" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="G4" s="5" t="s">
+      <c r="G4" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="H4" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="H4" s="6"/>
       <c r="I4" s="6"/>
       <c r="J4" s="6"/>
       <c r="K4" s="6"/>
@@ -621,8 +652,9 @@
       <c r="N4" s="6"/>
       <c r="O4" s="6"/>
       <c r="P4" s="6"/>
-    </row>
-    <row r="5" spans="1:16" s="7" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="Q4" s="6"/>
+    </row>
+    <row r="5" spans="1:17" s="7" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A5" s="5" t="s">
         <v>16</v>
       </c>
@@ -641,10 +673,12 @@
       <c r="F5" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="G5" s="5" t="s">
+      <c r="G5" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="H5" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="H5" s="6"/>
       <c r="I5" s="6"/>
       <c r="J5" s="6"/>
       <c r="K5" s="6"/>
@@ -653,8 +687,9 @@
       <c r="N5" s="6"/>
       <c r="O5" s="6"/>
       <c r="P5" s="6"/>
-    </row>
-    <row r="6" spans="1:16" s="7" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="Q5" s="6"/>
+    </row>
+    <row r="6" spans="1:17" s="7" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A6" s="5" t="s">
         <v>17</v>
       </c>
@@ -673,10 +708,12 @@
       <c r="F6" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="G6" s="5" t="s">
+      <c r="G6" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="H6" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="H6" s="6"/>
       <c r="I6" s="6"/>
       <c r="J6" s="6"/>
       <c r="K6" s="6"/>
@@ -685,8 +722,9 @@
       <c r="N6" s="6"/>
       <c r="O6" s="6"/>
       <c r="P6" s="6"/>
-    </row>
-    <row r="7" spans="1:16" s="7" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="Q6" s="6"/>
+    </row>
+    <row r="7" spans="1:17" s="7" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A7" s="5" t="s">
         <v>18</v>
       </c>
@@ -705,10 +743,12 @@
       <c r="F7" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="G7" s="5" t="s">
+      <c r="G7" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="H7" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="H7" s="6"/>
       <c r="I7" s="6"/>
       <c r="J7" s="6"/>
       <c r="K7" s="6"/>
@@ -717,8 +757,9 @@
       <c r="N7" s="6"/>
       <c r="O7" s="6"/>
       <c r="P7" s="6"/>
-    </row>
-    <row r="8" spans="1:16" s="7" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="Q7" s="6"/>
+    </row>
+    <row r="8" spans="1:17" s="7" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A8" s="5" t="s">
         <v>19</v>
       </c>
@@ -737,10 +778,12 @@
       <c r="F8" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="G8" s="5" t="s">
+      <c r="G8" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="H8" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="H8" s="6"/>
       <c r="I8" s="6"/>
       <c r="J8" s="6"/>
       <c r="K8" s="6"/>
@@ -749,8 +792,9 @@
       <c r="N8" s="6"/>
       <c r="O8" s="6"/>
       <c r="P8" s="6"/>
-    </row>
-    <row r="9" spans="1:16" s="7" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="Q8" s="6"/>
+    </row>
+    <row r="9" spans="1:17" s="7" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A9" s="5" t="s">
         <v>20</v>
       </c>
@@ -769,10 +813,12 @@
       <c r="F9" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="G9" s="5" t="s">
+      <c r="G9" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="H9" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="H9" s="6"/>
       <c r="I9" s="6"/>
       <c r="J9" s="6"/>
       <c r="K9" s="6"/>
@@ -781,18 +827,44 @@
       <c r="N9" s="6"/>
       <c r="O9" s="6"/>
       <c r="P9" s="6"/>
-    </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.15">
-      <c r="A10" s="4"/>
-      <c r="B10" s="4"/>
-      <c r="C10" s="4"/>
-      <c r="D10" s="4"/>
-      <c r="E10" s="4"/>
-      <c r="F10" s="4"/>
-      <c r="G10" s="4"/>
-      <c r="H10" s="3"/>
-    </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="Q9" s="6"/>
+    </row>
+    <row r="10" spans="1:17" s="7" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A10" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="B10" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="C10" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="D10" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="E10" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="F10" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="G10" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="H10" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="I10" s="6"/>
+      <c r="J10" s="6"/>
+      <c r="K10" s="6"/>
+      <c r="L10" s="6"/>
+      <c r="M10" s="6"/>
+      <c r="N10" s="6"/>
+      <c r="O10" s="6"/>
+      <c r="P10" s="6"/>
+      <c r="Q10" s="6"/>
+    </row>
+    <row r="11" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A11" s="4"/>
       <c r="B11" s="4"/>
       <c r="C11" s="4"/>
@@ -800,9 +872,10 @@
       <c r="E11" s="4"/>
       <c r="F11" s="4"/>
       <c r="G11" s="4"/>
-      <c r="H11" s="3"/>
-    </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="H11" s="4"/>
+      <c r="I11" s="3"/>
+    </row>
+    <row r="12" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A12" s="4"/>
       <c r="B12" s="4"/>
       <c r="C12" s="4"/>
@@ -810,9 +883,10 @@
       <c r="E12" s="4"/>
       <c r="F12" s="4"/>
       <c r="G12" s="4"/>
-      <c r="H12" s="3"/>
-    </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="H12" s="4"/>
+      <c r="I12" s="3"/>
+    </row>
+    <row r="13" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A13" s="4"/>
       <c r="B13" s="4"/>
       <c r="C13" s="4"/>
@@ -820,9 +894,10 @@
       <c r="E13" s="4"/>
       <c r="F13" s="4"/>
       <c r="G13" s="4"/>
-      <c r="H13" s="3"/>
-    </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="H13" s="4"/>
+      <c r="I13" s="3"/>
+    </row>
+    <row r="14" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A14" s="4"/>
       <c r="B14" s="4"/>
       <c r="C14" s="4"/>
@@ -830,9 +905,10 @@
       <c r="E14" s="4"/>
       <c r="F14" s="4"/>
       <c r="G14" s="4"/>
-      <c r="H14" s="3"/>
-    </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="H14" s="4"/>
+      <c r="I14" s="3"/>
+    </row>
+    <row r="15" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A15" s="4"/>
       <c r="B15" s="4"/>
       <c r="C15" s="4"/>
@@ -840,9 +916,10 @@
       <c r="E15" s="4"/>
       <c r="F15" s="4"/>
       <c r="G15" s="4"/>
-      <c r="H15" s="3"/>
-    </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="H15" s="4"/>
+      <c r="I15" s="3"/>
+    </row>
+    <row r="16" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A16" s="4"/>
       <c r="B16" s="4"/>
       <c r="C16" s="4"/>
@@ -850,9 +927,10 @@
       <c r="E16" s="4"/>
       <c r="F16" s="4"/>
       <c r="G16" s="4"/>
-      <c r="H16" s="3"/>
-    </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="H16" s="4"/>
+      <c r="I16" s="3"/>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A17" s="4"/>
       <c r="B17" s="4"/>
       <c r="C17" s="4"/>
@@ -860,7 +938,8 @@
       <c r="E17" s="4"/>
       <c r="F17" s="4"/>
       <c r="G17" s="4"/>
-      <c r="H17" s="3"/>
+      <c r="H17" s="4"/>
+      <c r="I17" s="3"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
